--- a/Lecturer_Class_Mapping.xlsx
+++ b/Lecturer_Class_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewj\Documents\UiPath\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E840E55-57A4-47A7-98D0-CA3CCB4AA6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2E591-14EE-4039-BD69-12B27C2D395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E8E9CBF3-D3DB-4F7C-9998-5046EC8C6723}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Subject</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>2401404e@gmail.com</t>
+  </si>
+  <si>
+    <t>junleiliew@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -520,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -531,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -541,6 +544,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1704A15E-44BF-4CE8-AD92-BD6C7D4A381F}"/>
     <hyperlink ref="C3:C7" r:id="rId2" display="2401404e@gmail.com" xr:uid="{8AF50D00-B8A0-4EAF-AB1F-7241B47DCD78}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{210021B3-A7A8-4B2D-A43D-6BE467556573}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{8F086BD5-DFA5-49C7-BAB3-F69D91C1C22B}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{14C79F5F-2840-48DE-B11C-915DCDC65ECF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
